--- a/mock_analysis/Datasets_mock_communities.xlsx
+++ b/mock_analysis/Datasets_mock_communities.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alegandro\Documents\Projects_\NIOZ\AmpliPipeline\benchmark\mocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72A9AEF-D2E9-40C6-8885-35254F58D865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04309CD-8916-42EC-B0B9-A03FA5422791}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1E96B228-0447-47D7-9AC4-4B51158149CD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="datasets" sheetId="1" r:id="rId1"/>
+    <sheet name="ITS runs" sheetId="2" r:id="rId2"/>
+    <sheet name="18S runs" sheetId="3" r:id="rId3"/>
+    <sheet name="16S runs" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="106">
   <si>
     <t>Project accession</t>
   </si>
@@ -162,6 +165,207 @@
   </si>
   <si>
     <t xml:space="preserve">20 evenly abundant distributed bacterial species. Mock 20 </t>
+  </si>
+  <si>
+    <t>min abundance = 5 and present in 2 of 3 samples for being retained</t>
+  </si>
+  <si>
+    <t>Unite - sh_refs_qiime_ver8_97_04.02.2020.fasta</t>
+  </si>
+  <si>
+    <t>vsearch</t>
+  </si>
+  <si>
+    <t>uclust</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>RDP (no choice)</t>
+  </si>
+  <si>
+    <t>maxEE_FW: 5, maxEE_RV:10</t>
+  </si>
+  <si>
+    <t>dada2</t>
+  </si>
+  <si>
+    <t>maxEE_FW: 3, maxEE_RV:5</t>
+  </si>
+  <si>
+    <t>swarm</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>uchime_reference_dataset_28.06.2017.fasta</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>reference database</t>
+  </si>
+  <si>
+    <t>tax assignment</t>
+  </si>
+  <si>
+    <t>OTU/ASV parameters</t>
+  </si>
+  <si>
+    <t>OTU/ASV method</t>
+  </si>
+  <si>
+    <t>chimera search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">config file </t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>Silva 132_97_18S</t>
+  </si>
+  <si>
+    <t>silva_nr_v138_train_set.fa.gz</t>
+  </si>
+  <si>
+    <t>vsearch (id 09)</t>
+  </si>
+  <si>
+    <t>min abundance = 5 and present in 3 of 6 samples for being retained</t>
+  </si>
+  <si>
+    <t>silva_nr_v132_train_set.fa.gz</t>
+  </si>
+  <si>
+    <t>config file</t>
+  </si>
+  <si>
+    <t>config.otu_run1_uclust97_94.yaml</t>
+  </si>
+  <si>
+    <t>silva 132, 94% clustered</t>
+  </si>
+  <si>
+    <t>config.otu_run2_uclust97_97.yaml</t>
+  </si>
+  <si>
+    <t>silva 132, 97% clustered</t>
+  </si>
+  <si>
+    <t>config.otu_run3_uclust94_97.yaml</t>
+  </si>
+  <si>
+    <t>config.otu_run4_uclust94_94.yaml</t>
+  </si>
+  <si>
+    <t>config.otu_run5_swarm1_94.yaml</t>
+  </si>
+  <si>
+    <t>config.otu_run6_swarm1_97.yaml</t>
+  </si>
+  <si>
+    <t>config.otu_run7_swarm2_94.yaml</t>
+  </si>
+  <si>
+    <t>config.otu_run8_swarm2_97.yaml</t>
+  </si>
+  <si>
+    <t>config.otu_run9_swarm3_94.yaml</t>
+  </si>
+  <si>
+    <t>config.otu_run10_swarm3_97.yaml</t>
+  </si>
+  <si>
+    <t>silva132_99.fna</t>
+  </si>
+  <si>
+    <t>config.otu_1.yaml</t>
+  </si>
+  <si>
+    <t>config.otu_3.yaml</t>
+  </si>
+  <si>
+    <t>contig.otu_4.yaml</t>
+  </si>
+  <si>
+    <t>config.otu_5.yaml</t>
+  </si>
+  <si>
+    <t>contig.otu_6.yaml</t>
+  </si>
+  <si>
+    <t>config.otu_7.yaml</t>
+  </si>
+  <si>
+    <t>contig.otu_8.yaml</t>
+  </si>
+  <si>
+    <t>config.otu_9.yaml</t>
+  </si>
+  <si>
+    <t>contig.otu_10.yaml</t>
+  </si>
+  <si>
+    <t>config.otu_11.yaml</t>
+  </si>
+  <si>
+    <t>contig.otu_12.yaml</t>
+  </si>
+  <si>
+    <t>config.otu_13.yaml</t>
+  </si>
+  <si>
+    <t>contig.asv_14.yaml</t>
+  </si>
+  <si>
+    <t>contig.asv_15.yaml</t>
+  </si>
+  <si>
+    <t>contig.otu_16.yaml</t>
+  </si>
+  <si>
+    <t>T (chimera_denovo)</t>
+  </si>
+  <si>
+    <t>T (vs Gold database)</t>
+  </si>
+  <si>
+    <t>contig.asv_18.yaml</t>
+  </si>
+  <si>
+    <t>contig.asv_17.yaml</t>
+  </si>
+  <si>
+    <t>config.otu_run11_swarm1_vsearch99.yaml</t>
+  </si>
+  <si>
+    <t>config.otu_run12_swarm1_chimeraCh_vsearch99.yaml</t>
+  </si>
+  <si>
+    <t>config.otu_run13_swarm2_vsearch99.yaml</t>
+  </si>
+  <si>
+    <t>config.asv_run14_dada2_maxEE_FW3_maxEE_RV5.yaml</t>
+  </si>
+  <si>
+    <t>config.asv_run15_dada2_maxEE_FW5_maxEE_RV10.yaml</t>
+  </si>
+  <si>
+    <t>config.asv_run16_dada2_maxEE_FW5_maxEE_RV10_multSpecies.yaml</t>
+  </si>
+  <si>
+    <t>config.asv_run18_dada2_maxEE_FW3_maxEE_RV5_silva138_lengthcutoffAVE.yaml</t>
+  </si>
+  <si>
+    <t>config.asv_run17_dada2_maxEE_FW3_maxEE_RV5_silva138.yaml</t>
   </si>
 </sst>
 </file>
@@ -243,8 +447,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -271,6 +476,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -605,189 +823,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="5" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="5" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="5" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="5" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="5" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -832,4 +1050,1088 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E2AC06-B3DC-407A-A9B4-82516B490A09}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="41.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="13">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="13">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="13">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A0D5E1-D99B-47E7-A016-EBA5B5AAA135}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="13">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010CC042-B8DF-45CD-8350-5FC898714027}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="70.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="13">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="13">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="13">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>